--- a/Venue_Category_Counts.xlsx
+++ b/Venue_Category_Counts.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="262">
   <si>
     <t>Count</t>
   </si>
@@ -22,6 +22,9 @@
     <t>Venue Category</t>
   </si>
   <si>
+    <t>ATM</t>
+  </si>
+  <si>
     <t>Accessories Store</t>
   </si>
   <si>
@@ -94,6 +97,12 @@
     <t>Baseball Stadium</t>
   </si>
   <si>
+    <t>Basketball Court</t>
+  </si>
+  <si>
+    <t>Bed &amp; Breakfast</t>
+  </si>
+  <si>
     <t>Beer Garden</t>
   </si>
   <si>
@@ -109,6 +118,9 @@
     <t>Bistro</t>
   </si>
   <si>
+    <t>Board Shop</t>
+  </si>
+  <si>
     <t>Boat or Ferry</t>
   </si>
   <si>
@@ -148,12 +160,12 @@
     <t>Bus Line</t>
   </si>
   <si>
-    <t>Bus Station</t>
-  </si>
-  <si>
     <t>Bus Stop</t>
   </si>
   <si>
+    <t>Business Service</t>
+  </si>
+  <si>
     <t>Café</t>
   </si>
   <si>
@@ -199,6 +211,9 @@
     <t>Concert Hall</t>
   </si>
   <si>
+    <t>Construction &amp; Landscaping</t>
+  </si>
+  <si>
     <t>Convenience Store</t>
   </si>
   <si>
@@ -262,6 +277,9 @@
     <t>Event Space</t>
   </si>
   <si>
+    <t>Exhibit</t>
+  </si>
+  <si>
     <t>Falafel Restaurant</t>
   </si>
   <si>
@@ -271,15 +289,15 @@
     <t>Fast Food Restaurant</t>
   </si>
   <si>
+    <t>Fish Market</t>
+  </si>
+  <si>
     <t>Flea Market</t>
   </si>
   <si>
     <t>Flower Shop</t>
   </si>
   <si>
-    <t>Food</t>
-  </si>
-  <si>
     <t>Food &amp; Drink Shop</t>
   </si>
   <si>
@@ -310,6 +328,9 @@
     <t>Gastropub</t>
   </si>
   <si>
+    <t>Gay Bar</t>
+  </si>
+  <si>
     <t>General Entertainment</t>
   </si>
   <si>
@@ -337,6 +358,9 @@
     <t>Hardware Store</t>
   </si>
   <si>
+    <t>Health &amp; Beauty Service</t>
+  </si>
+  <si>
     <t>Historic Site</t>
   </si>
   <si>
@@ -349,9 +373,6 @@
     <t>Hockey Arena</t>
   </si>
   <si>
-    <t>Home Service</t>
-  </si>
-  <si>
     <t>Hostel</t>
   </si>
   <si>
@@ -415,9 +436,18 @@
     <t>Latin American Restaurant</t>
   </si>
   <si>
+    <t>Laundromat</t>
+  </si>
+  <si>
+    <t>Laundry Service</t>
+  </si>
+  <si>
     <t>Library</t>
   </si>
   <si>
+    <t>Light Rail Station</t>
+  </si>
+  <si>
     <t>Lingerie Store</t>
   </si>
   <si>
@@ -484,6 +514,9 @@
     <t>Music Venue</t>
   </si>
   <si>
+    <t>Nail Salon</t>
+  </si>
+  <si>
     <t>National Park</t>
   </si>
   <si>
@@ -556,6 +589,9 @@
     <t>Planetarium</t>
   </si>
   <si>
+    <t>Platform</t>
+  </si>
+  <si>
     <t>Playground</t>
   </si>
   <si>
@@ -613,6 +649,9 @@
     <t>Scenic Lookout</t>
   </si>
   <si>
+    <t>Sculpture Garden</t>
+  </si>
+  <si>
     <t>Seafood Restaurant</t>
   </si>
   <si>
@@ -661,9 +700,6 @@
     <t>Sports Bar</t>
   </si>
   <si>
-    <t>Sports Club</t>
-  </si>
-  <si>
     <t>Steakhouse</t>
   </si>
   <si>
@@ -682,6 +718,9 @@
     <t>Taco Place</t>
   </si>
   <si>
+    <t>Tailor Shop</t>
+  </si>
+  <si>
     <t>Tapas Restaurant</t>
   </si>
   <si>
@@ -725,9 +764,6 @@
   </si>
   <si>
     <t>Trail</t>
-  </si>
-  <si>
-    <t>Train Station</t>
   </si>
   <si>
     <t>Tunnel</t>
@@ -1121,7 +1157,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B249"/>
+  <dimension ref="A1:B261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1140,7 +1176,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1148,7 +1184,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1156,7 +1192,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1172,7 +1208,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1180,7 +1216,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1188,7 +1224,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>38</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1196,7 +1232,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1204,7 +1240,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1212,7 +1248,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1220,7 +1256,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1228,7 +1264,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1236,7 +1272,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1244,7 +1280,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1252,7 +1288,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1260,7 +1296,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1268,7 +1304,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1276,7 +1312,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1284,7 +1320,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1292,7 +1328,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>31</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1300,7 +1336,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1308,7 +1344,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1316,7 +1352,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1324,7 +1360,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1332,7 +1368,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1340,7 +1376,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1356,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1364,7 +1400,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1380,7 +1416,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1396,7 +1432,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1412,7 +1448,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1428,7 +1464,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1436,7 +1472,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1444,7 +1480,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1452,7 +1488,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1460,7 +1496,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1468,7 +1504,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1476,7 +1512,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1484,7 +1520,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1492,7 +1528,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1508,7 +1544,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1524,7 +1560,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1532,7 +1568,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1540,7 +1576,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1564,7 +1600,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1572,7 +1608,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1580,7 +1616,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>51</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1588,7 +1624,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1596,7 +1632,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1604,7 +1640,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1612,7 +1648,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>14</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1620,7 +1656,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1644,7 +1680,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1652,7 +1688,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1660,7 +1696,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1668,7 +1704,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1676,7 +1712,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1684,7 +1720,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1692,7 +1728,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1700,7 +1736,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1708,7 +1744,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1716,7 +1752,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1724,7 +1760,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1740,7 +1776,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1748,7 +1784,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1756,7 +1792,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1764,7 +1800,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1772,7 +1808,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1780,7 +1816,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>2</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1788,7 +1824,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1796,7 +1832,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1812,7 +1848,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1836,7 +1872,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1844,7 +1880,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1852,7 +1888,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1860,7 +1896,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1876,7 +1912,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1884,7 +1920,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1892,7 +1928,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1900,7 +1936,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1908,7 +1944,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1916,7 +1952,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1924,7 +1960,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1932,7 +1968,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1940,7 +1976,7 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1948,7 +1984,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1956,7 +1992,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1964,7 +2000,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1972,7 +2008,7 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1980,7 +2016,7 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1988,7 +2024,7 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1996,7 +2032,7 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2004,7 +2040,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2012,7 +2048,7 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2020,7 +2056,7 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2028,7 +2064,7 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2036,7 +2072,7 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2044,7 +2080,7 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2052,7 +2088,7 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2060,7 +2096,7 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2068,7 +2104,7 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2076,7 +2112,7 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2092,7 +2128,7 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2100,7 +2136,7 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2108,7 +2144,7 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2124,7 +2160,7 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2132,7 +2168,7 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2140,7 +2176,7 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2156,7 +2192,7 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2164,7 +2200,7 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2172,7 +2208,7 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2180,7 +2216,7 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2188,7 +2224,7 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2196,7 +2232,7 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2204,7 +2240,7 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2212,7 +2248,7 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2220,7 +2256,7 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2228,7 +2264,7 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2236,7 +2272,7 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2252,7 +2288,7 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2260,7 +2296,7 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2284,7 +2320,7 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2292,7 +2328,7 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2300,7 +2336,7 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2308,7 +2344,7 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2316,7 +2352,7 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2332,7 +2368,7 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2340,7 +2376,7 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2356,7 +2392,7 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2364,7 +2400,7 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2380,7 +2416,7 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2396,7 +2432,7 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2412,7 +2448,7 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2428,7 +2464,7 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2444,7 +2480,7 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2452,7 +2488,7 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2476,7 +2512,7 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2484,7 +2520,7 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2492,7 +2528,7 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2508,7 +2544,7 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2516,7 +2552,7 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2540,7 +2576,7 @@
         <v>177</v>
       </c>
       <c r="B177">
-        <v>51</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2548,7 +2584,7 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2564,7 +2600,7 @@
         <v>180</v>
       </c>
       <c r="B180">
-        <v>6</v>
+        <v>39</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2572,7 +2608,7 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2588,7 +2624,7 @@
         <v>183</v>
       </c>
       <c r="B183">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2596,7 +2632,7 @@
         <v>184</v>
       </c>
       <c r="B184">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2604,7 +2640,7 @@
         <v>185</v>
       </c>
       <c r="B185">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2612,7 +2648,7 @@
         <v>186</v>
       </c>
       <c r="B186">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2620,7 +2656,7 @@
         <v>187</v>
       </c>
       <c r="B187">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2628,7 +2664,7 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <v>6</v>
+        <v>53</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2636,7 +2672,7 @@
         <v>189</v>
       </c>
       <c r="B189">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -2660,7 +2696,7 @@
         <v>192</v>
       </c>
       <c r="B192">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2668,7 +2704,7 @@
         <v>193</v>
       </c>
       <c r="B193">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -2676,7 +2712,7 @@
         <v>194</v>
       </c>
       <c r="B194">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -2684,7 +2720,7 @@
         <v>195</v>
       </c>
       <c r="B195">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -2692,7 +2728,7 @@
         <v>196</v>
       </c>
       <c r="B196">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -2700,7 +2736,7 @@
         <v>197</v>
       </c>
       <c r="B197">
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -2708,7 +2744,7 @@
         <v>198</v>
       </c>
       <c r="B198">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -2716,7 +2752,7 @@
         <v>199</v>
       </c>
       <c r="B199">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -2724,7 +2760,7 @@
         <v>200</v>
       </c>
       <c r="B200">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -2732,7 +2768,7 @@
         <v>201</v>
       </c>
       <c r="B201">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2740,7 +2776,7 @@
         <v>202</v>
       </c>
       <c r="B202">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2748,7 +2784,7 @@
         <v>203</v>
       </c>
       <c r="B203">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2756,7 +2792,7 @@
         <v>204</v>
       </c>
       <c r="B204">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2764,7 +2800,7 @@
         <v>205</v>
       </c>
       <c r="B205">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2772,7 +2808,7 @@
         <v>206</v>
       </c>
       <c r="B206">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2780,7 +2816,7 @@
         <v>207</v>
       </c>
       <c r="B207">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2788,7 +2824,7 @@
         <v>208</v>
       </c>
       <c r="B208">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2796,7 +2832,7 @@
         <v>209</v>
       </c>
       <c r="B209">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2804,7 +2840,7 @@
         <v>210</v>
       </c>
       <c r="B210">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2820,7 +2856,7 @@
         <v>212</v>
       </c>
       <c r="B212">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2828,7 +2864,7 @@
         <v>213</v>
       </c>
       <c r="B213">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2836,7 +2872,7 @@
         <v>214</v>
       </c>
       <c r="B214">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2844,7 +2880,7 @@
         <v>215</v>
       </c>
       <c r="B215">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2852,7 +2888,7 @@
         <v>216</v>
       </c>
       <c r="B216">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2860,7 +2896,7 @@
         <v>217</v>
       </c>
       <c r="B217">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2876,7 +2912,7 @@
         <v>219</v>
       </c>
       <c r="B219">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2908,7 +2944,7 @@
         <v>223</v>
       </c>
       <c r="B223">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2916,7 +2952,7 @@
         <v>224</v>
       </c>
       <c r="B224">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2924,7 +2960,7 @@
         <v>225</v>
       </c>
       <c r="B225">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2932,7 +2968,7 @@
         <v>226</v>
       </c>
       <c r="B226">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2940,7 +2976,7 @@
         <v>227</v>
       </c>
       <c r="B227">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2948,7 +2984,7 @@
         <v>228</v>
       </c>
       <c r="B228">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2956,7 +2992,7 @@
         <v>229</v>
       </c>
       <c r="B229">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2972,7 +3008,7 @@
         <v>231</v>
       </c>
       <c r="B231">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2980,7 +3016,7 @@
         <v>232</v>
       </c>
       <c r="B232">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2996,7 +3032,7 @@
         <v>234</v>
       </c>
       <c r="B234">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -3004,7 +3040,7 @@
         <v>235</v>
       </c>
       <c r="B235">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3012,7 +3048,7 @@
         <v>236</v>
       </c>
       <c r="B236">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3020,7 +3056,7 @@
         <v>237</v>
       </c>
       <c r="B237">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -3036,7 +3072,7 @@
         <v>239</v>
       </c>
       <c r="B239">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3044,7 +3080,7 @@
         <v>240</v>
       </c>
       <c r="B240">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3068,7 +3104,7 @@
         <v>243</v>
       </c>
       <c r="B243">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -3084,7 +3120,7 @@
         <v>245</v>
       </c>
       <c r="B245">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3092,7 +3128,7 @@
         <v>246</v>
       </c>
       <c r="B246">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -3100,7 +3136,7 @@
         <v>247</v>
       </c>
       <c r="B247">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3108,7 +3144,7 @@
         <v>248</v>
       </c>
       <c r="B248">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3116,7 +3152,103 @@
         <v>249</v>
       </c>
       <c r="B249">
-        <v>13</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B251">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B254">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B255">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B257">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B258">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B260">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B261">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Venue_Category_Counts.xlsx
+++ b/Venue_Category_Counts.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="293">
   <si>
     <t>Count</t>
   </si>
@@ -28,9 +28,6 @@
     <t>Accessories Store</t>
   </si>
   <si>
-    <t>Adult Boutique</t>
-  </si>
-  <si>
     <t>Afghan Restaurant</t>
   </si>
   <si>
@@ -40,9 +37,6 @@
     <t>Airport</t>
   </si>
   <si>
-    <t>Airport Lounge</t>
-  </si>
-  <si>
     <t>Airport Service</t>
   </si>
   <si>
@@ -169,6 +163,9 @@
     <t>Burger Joint</t>
   </si>
   <si>
+    <t>Burmese Restaurant</t>
+  </si>
+  <si>
     <t>Burrito Place</t>
   </si>
   <si>
@@ -184,9 +181,6 @@
     <t>Business Service</t>
   </si>
   <si>
-    <t>Cafeteria</t>
-  </si>
-  <si>
     <t>Café</t>
   </si>
   <si>
@@ -199,6 +193,9 @@
     <t>Candy Store</t>
   </si>
   <si>
+    <t>Cantonese Restaurant</t>
+  </si>
+  <si>
     <t>Caribbean Restaurant</t>
   </si>
   <si>
@@ -232,9 +229,6 @@
     <t>College Gym</t>
   </si>
   <si>
-    <t>College Technology Building</t>
-  </si>
-  <si>
     <t>Comedy Club</t>
   </si>
   <si>
@@ -250,6 +244,9 @@
     <t>Concert Hall</t>
   </si>
   <si>
+    <t>Construction &amp; Landscaping</t>
+  </si>
+  <si>
     <t>Convenience Store</t>
   </si>
   <si>
@@ -259,9 +256,6 @@
     <t>Creperie</t>
   </si>
   <si>
-    <t>Cruise</t>
-  </si>
-  <si>
     <t>Cuban Restaurant</t>
   </si>
   <si>
@@ -316,9 +310,15 @@
     <t>Ethiopian Restaurant</t>
   </si>
   <si>
+    <t>Event Service</t>
+  </si>
+  <si>
     <t>Event Space</t>
   </si>
   <si>
+    <t>Eye Doctor</t>
+  </si>
+  <si>
     <t>Falafel Restaurant</t>
   </si>
   <si>
@@ -406,9 +406,6 @@
     <t>Gym / Fitness Center</t>
   </si>
   <si>
-    <t>Halal Restaurant</t>
-  </si>
-  <si>
     <t>Harbor / Marina</t>
   </si>
   <si>
@@ -520,9 +517,6 @@
     <t>Massage Studio</t>
   </si>
   <si>
-    <t>Mattress Store</t>
-  </si>
-  <si>
     <t>Mediterranean Restaurant</t>
   </si>
   <si>
@@ -589,6 +583,9 @@
     <t>Noodle House</t>
   </si>
   <si>
+    <t>Office</t>
+  </si>
+  <si>
     <t>Opera House</t>
   </si>
   <si>
@@ -613,9 +610,6 @@
     <t>Park</t>
   </si>
   <si>
-    <t>Parking</t>
-  </si>
-  <si>
     <t>Pastry Shop</t>
   </si>
   <si>
@@ -658,9 +652,6 @@
     <t>Poke Place</t>
   </si>
   <si>
-    <t>Polish Restaurant</t>
-  </si>
-  <si>
     <t>Pool</t>
   </si>
   <si>
@@ -682,18 +673,12 @@
     <t>Record Shop</t>
   </si>
   <si>
-    <t>Recreation Center</t>
-  </si>
-  <si>
     <t>Rental Car Location</t>
   </si>
   <si>
     <t>Rental Service</t>
   </si>
   <si>
-    <t>Residential Building (Apartment / Condo)</t>
-  </si>
-  <si>
     <t>Resort</t>
   </si>
   <si>
@@ -790,6 +775,9 @@
     <t>Sri Lankan Restaurant</t>
   </si>
   <si>
+    <t>Stadium</t>
+  </si>
+  <si>
     <t>Steakhouse</t>
   </si>
   <si>
@@ -820,15 +808,15 @@
     <t>Tattoo Parlor</t>
   </si>
   <si>
+    <t>Taxi</t>
+  </si>
+  <si>
     <t>Tea Room</t>
   </si>
   <si>
     <t>Tennis Court</t>
   </si>
   <si>
-    <t>Tennis Stadium</t>
-  </si>
-  <si>
     <t>Thai Restaurant</t>
   </si>
   <si>
@@ -847,6 +835,9 @@
     <t>Tiki Bar</t>
   </si>
   <si>
+    <t>Toll Booth</t>
+  </si>
+  <si>
     <t>Tour Provider</t>
   </si>
   <si>
@@ -874,9 +865,6 @@
     <t>Vegetarian / Vegan Restaurant</t>
   </si>
   <si>
-    <t>Veterinarian</t>
-  </si>
-  <si>
     <t>Video Game Store</t>
   </si>
   <si>
@@ -898,9 +886,6 @@
     <t>Wine Shop</t>
   </si>
   <si>
-    <t>Winery</t>
-  </si>
-  <si>
     <t>Wings Joint</t>
   </si>
   <si>
@@ -908,9 +893,6 @@
   </si>
   <si>
     <t>Yoga Studio</t>
-  </si>
-  <si>
-    <t>Zoo Exhibit</t>
   </si>
 </sst>
 </file>
@@ -1268,7 +1250,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B298"/>
+  <dimension ref="A1:B292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1311,7 +1293,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1319,7 +1301,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1335,7 +1317,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1343,7 +1325,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1359,7 +1341,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>66</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1375,7 +1357,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1383,7 +1365,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1391,7 +1373,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1399,7 +1381,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1407,7 +1389,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1415,7 +1397,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1423,7 +1405,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1431,7 +1413,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1447,7 +1429,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1455,7 +1437,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1471,7 +1453,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1479,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1487,7 +1469,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1495,7 +1477,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>67</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1503,7 +1485,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1511,7 +1493,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>38</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1519,7 +1501,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1527,7 +1509,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1535,7 +1517,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1543,7 +1525,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1551,7 +1533,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1559,7 +1541,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1583,7 +1565,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1591,7 +1573,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1599,7 +1581,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1607,7 +1589,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1615,7 +1597,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1623,7 +1605,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1631,7 +1613,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1639,7 +1621,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1647,7 +1629,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1655,7 +1637,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1663,7 +1645,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1671,7 +1653,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1679,7 +1661,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1687,7 +1669,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1695,7 +1677,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1703,7 +1685,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1711,7 +1693,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1727,7 +1709,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>65</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1751,7 +1733,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1759,7 +1741,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1767,7 +1749,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1775,7 +1757,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>2</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1783,7 +1765,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>35</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1799,7 +1781,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1807,7 +1789,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1815,7 +1797,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1823,7 +1805,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1831,7 +1813,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>83</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1839,7 +1821,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1847,7 +1829,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1855,7 +1837,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1863,7 +1845,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1871,7 +1853,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1879,7 +1861,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1887,7 +1869,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1895,7 +1877,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1903,7 +1885,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1911,7 +1893,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1919,7 +1901,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1927,7 +1909,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1943,7 +1925,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1951,7 +1933,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1959,7 +1941,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1967,7 +1949,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1975,7 +1957,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1983,7 +1965,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1991,7 +1973,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1999,7 +1981,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2007,7 +1989,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2015,7 +1997,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2023,7 +2005,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2031,7 +2013,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2039,7 +2021,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2055,7 +2037,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2063,7 +2045,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2071,7 +2053,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2087,7 +2069,7 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2095,7 +2077,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2127,7 +2109,7 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2135,7 +2117,7 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2175,7 +2157,7 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2183,7 +2165,7 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2191,7 +2173,7 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2199,7 +2181,7 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2231,7 +2213,7 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2239,7 +2221,7 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2247,7 +2229,7 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2263,7 +2245,7 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2279,7 +2261,7 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2287,7 +2269,7 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2295,7 +2277,7 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2303,7 +2285,7 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2311,7 +2293,7 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2319,7 +2301,7 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2327,7 +2309,7 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2335,7 +2317,7 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2343,7 +2325,7 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2359,7 +2341,7 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2367,7 +2349,7 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2375,7 +2357,7 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2383,7 +2365,7 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>2</v>
+        <v>47</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2391,7 +2373,7 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>51</v>
+        <v>7</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2399,7 +2381,7 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2407,7 +2389,7 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2415,7 +2397,7 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2423,7 +2405,7 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2431,7 +2413,7 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2439,7 +2421,7 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2447,7 +2429,7 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2455,7 +2437,7 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>89</v>
+        <v>20</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2463,7 +2445,7 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2471,7 +2453,7 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2479,7 +2461,7 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2487,7 +2469,7 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2495,7 +2477,7 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2503,7 +2485,7 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2511,7 +2493,7 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2519,7 +2501,7 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2527,7 +2509,7 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2535,7 +2517,7 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2543,7 +2525,7 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2551,7 +2533,7 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2559,7 +2541,7 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2567,7 +2549,7 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2575,7 +2557,7 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2591,7 +2573,7 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2599,7 +2581,7 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2607,7 +2589,7 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2615,7 +2597,7 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2623,7 +2605,7 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2631,7 +2613,7 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>3</v>
+        <v>47</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2639,7 +2621,7 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2647,7 +2629,7 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>51</v>
+        <v>9</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2655,7 +2637,7 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2663,7 +2645,7 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2671,7 +2653,7 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2679,7 +2661,7 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2687,7 +2669,7 @@
         <v>177</v>
       </c>
       <c r="B177">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2703,7 +2685,7 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2711,7 +2693,7 @@
         <v>180</v>
       </c>
       <c r="B180">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2727,7 +2709,7 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2735,7 +2717,7 @@
         <v>183</v>
       </c>
       <c r="B183">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2743,7 +2725,7 @@
         <v>184</v>
       </c>
       <c r="B184">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2751,7 +2733,7 @@
         <v>185</v>
       </c>
       <c r="B185">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2759,7 +2741,7 @@
         <v>186</v>
       </c>
       <c r="B186">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2767,7 +2749,7 @@
         <v>187</v>
       </c>
       <c r="B187">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2775,7 +2757,7 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2783,7 +2765,7 @@
         <v>189</v>
       </c>
       <c r="B189">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -2799,7 +2781,7 @@
         <v>191</v>
       </c>
       <c r="B191">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -2807,7 +2789,7 @@
         <v>192</v>
       </c>
       <c r="B192">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2815,7 +2797,7 @@
         <v>193</v>
       </c>
       <c r="B193">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -2831,7 +2813,7 @@
         <v>195</v>
       </c>
       <c r="B195">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -2839,7 +2821,7 @@
         <v>196</v>
       </c>
       <c r="B196">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -2847,7 +2829,7 @@
         <v>197</v>
       </c>
       <c r="B197">
-        <v>2</v>
+        <v>92</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -2855,7 +2837,7 @@
         <v>198</v>
       </c>
       <c r="B198">
-        <v>98</v>
+        <v>3</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -2879,7 +2861,7 @@
         <v>201</v>
       </c>
       <c r="B201">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2887,7 +2869,7 @@
         <v>202</v>
       </c>
       <c r="B202">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2895,7 +2877,7 @@
         <v>203</v>
       </c>
       <c r="B203">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2903,7 +2885,7 @@
         <v>204</v>
       </c>
       <c r="B204">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2911,7 +2893,7 @@
         <v>205</v>
       </c>
       <c r="B205">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2919,7 +2901,7 @@
         <v>206</v>
       </c>
       <c r="B206">
-        <v>27</v>
+        <v>94</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2927,7 +2909,7 @@
         <v>207</v>
       </c>
       <c r="B207">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2935,7 +2917,7 @@
         <v>208</v>
       </c>
       <c r="B208">
-        <v>96</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2943,7 +2925,7 @@
         <v>209</v>
       </c>
       <c r="B209">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2951,7 +2933,7 @@
         <v>210</v>
       </c>
       <c r="B210">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2959,7 +2941,7 @@
         <v>211</v>
       </c>
       <c r="B211">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2967,7 +2949,7 @@
         <v>212</v>
       </c>
       <c r="B212">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2991,7 +2973,7 @@
         <v>215</v>
       </c>
       <c r="B215">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2999,7 +2981,7 @@
         <v>216</v>
       </c>
       <c r="B216">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -3007,7 +2989,7 @@
         <v>217</v>
       </c>
       <c r="B217">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3015,7 +2997,7 @@
         <v>218</v>
       </c>
       <c r="B218">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -3023,7 +3005,7 @@
         <v>219</v>
       </c>
       <c r="B219">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -3031,7 +3013,7 @@
         <v>220</v>
       </c>
       <c r="B220">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -3039,7 +3021,7 @@
         <v>221</v>
       </c>
       <c r="B221">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3047,7 +3029,7 @@
         <v>222</v>
       </c>
       <c r="B222">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -3055,7 +3037,7 @@
         <v>223</v>
       </c>
       <c r="B223">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -3063,7 +3045,7 @@
         <v>224</v>
       </c>
       <c r="B224">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -3071,7 +3053,7 @@
         <v>225</v>
       </c>
       <c r="B225">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -3079,7 +3061,7 @@
         <v>226</v>
       </c>
       <c r="B226">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -3087,7 +3069,7 @@
         <v>227</v>
       </c>
       <c r="B227">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -3095,7 +3077,7 @@
         <v>228</v>
       </c>
       <c r="B228">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -3103,7 +3085,7 @@
         <v>229</v>
       </c>
       <c r="B229">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3111,7 +3093,7 @@
         <v>230</v>
       </c>
       <c r="B230">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -3119,7 +3101,7 @@
         <v>231</v>
       </c>
       <c r="B231">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -3127,7 +3109,7 @@
         <v>232</v>
       </c>
       <c r="B232">
-        <v>48</v>
+        <v>3</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -3135,7 +3117,7 @@
         <v>233</v>
       </c>
       <c r="B233">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -3143,7 +3125,7 @@
         <v>234</v>
       </c>
       <c r="B234">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -3151,7 +3133,7 @@
         <v>235</v>
       </c>
       <c r="B235">
-        <v>51</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3159,7 +3141,7 @@
         <v>236</v>
       </c>
       <c r="B236">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3167,7 +3149,7 @@
         <v>237</v>
       </c>
       <c r="B237">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -3175,7 +3157,7 @@
         <v>238</v>
       </c>
       <c r="B238">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -3183,7 +3165,7 @@
         <v>239</v>
       </c>
       <c r="B239">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3207,7 +3189,7 @@
         <v>242</v>
       </c>
       <c r="B242">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3215,7 +3197,7 @@
         <v>243</v>
       </c>
       <c r="B243">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -3223,7 +3205,7 @@
         <v>244</v>
       </c>
       <c r="B244">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -3231,7 +3213,7 @@
         <v>245</v>
       </c>
       <c r="B245">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3239,7 +3221,7 @@
         <v>246</v>
       </c>
       <c r="B246">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -3247,7 +3229,7 @@
         <v>247</v>
       </c>
       <c r="B247">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3255,7 +3237,7 @@
         <v>248</v>
       </c>
       <c r="B248">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3263,7 +3245,7 @@
         <v>249</v>
       </c>
       <c r="B249">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3271,7 +3253,7 @@
         <v>250</v>
       </c>
       <c r="B250">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -3279,7 +3261,7 @@
         <v>251</v>
       </c>
       <c r="B251">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -3287,7 +3269,7 @@
         <v>252</v>
       </c>
       <c r="B252">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -3303,7 +3285,7 @@
         <v>254</v>
       </c>
       <c r="B254">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -3311,7 +3293,7 @@
         <v>255</v>
       </c>
       <c r="B255">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -3319,7 +3301,7 @@
         <v>256</v>
       </c>
       <c r="B256">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -3327,7 +3309,7 @@
         <v>257</v>
       </c>
       <c r="B257">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -3335,7 +3317,7 @@
         <v>258</v>
       </c>
       <c r="B258">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -3343,7 +3325,7 @@
         <v>259</v>
       </c>
       <c r="B259">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -3351,7 +3333,7 @@
         <v>260</v>
       </c>
       <c r="B260">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -3367,7 +3349,7 @@
         <v>262</v>
       </c>
       <c r="B262">
-        <v>31</v>
+        <v>4</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -3383,7 +3365,7 @@
         <v>264</v>
       </c>
       <c r="B264">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -3391,7 +3373,7 @@
         <v>265</v>
       </c>
       <c r="B265">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -3399,7 +3381,7 @@
         <v>266</v>
       </c>
       <c r="B266">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -3407,7 +3389,7 @@
         <v>267</v>
       </c>
       <c r="B267">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -3415,7 +3397,7 @@
         <v>268</v>
       </c>
       <c r="B268">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -3423,7 +3405,7 @@
         <v>269</v>
       </c>
       <c r="B269">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -3431,7 +3413,7 @@
         <v>270</v>
       </c>
       <c r="B270">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -3439,7 +3421,7 @@
         <v>271</v>
       </c>
       <c r="B271">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -3447,7 +3429,7 @@
         <v>272</v>
       </c>
       <c r="B272">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -3463,7 +3445,7 @@
         <v>274</v>
       </c>
       <c r="B274">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -3479,7 +3461,7 @@
         <v>276</v>
       </c>
       <c r="B276">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -3487,7 +3469,7 @@
         <v>277</v>
       </c>
       <c r="B277">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -3495,7 +3477,7 @@
         <v>278</v>
       </c>
       <c r="B278">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -3503,7 +3485,7 @@
         <v>279</v>
       </c>
       <c r="B279">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -3511,7 +3493,7 @@
         <v>280</v>
       </c>
       <c r="B280">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -3519,7 +3501,7 @@
         <v>281</v>
       </c>
       <c r="B281">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -3527,7 +3509,7 @@
         <v>282</v>
       </c>
       <c r="B282">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -3535,7 +3517,7 @@
         <v>283</v>
       </c>
       <c r="B283">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -3543,7 +3525,7 @@
         <v>284</v>
       </c>
       <c r="B284">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -3551,7 +3533,7 @@
         <v>285</v>
       </c>
       <c r="B285">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -3567,7 +3549,7 @@
         <v>287</v>
       </c>
       <c r="B287">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -3575,7 +3557,7 @@
         <v>288</v>
       </c>
       <c r="B288">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -3583,7 +3565,7 @@
         <v>289</v>
       </c>
       <c r="B289">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -3599,7 +3581,7 @@
         <v>291</v>
       </c>
       <c r="B291">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -3607,55 +3589,7 @@
         <v>292</v>
       </c>
       <c r="B292">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2">
-      <c r="A293" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B293">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2">
-      <c r="A294" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B294">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2">
-      <c r="A295" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B295">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2">
-      <c r="A296" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B296">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2">
-      <c r="A297" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B297">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2">
-      <c r="A298" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B298">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
